--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,44 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\coding\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mysheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -359,320 +408,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>번호</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>컴퓨터</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>수학</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="B2" t="n">
+        <v>86</v>
+      </c>
+      <c r="C2" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="B3" t="n">
+        <v>76</v>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="B4" t="n">
+        <v>94</v>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="F1">
+      <c r="B6" t="n">
+        <v>69</v>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="B7" t="n">
+        <v>49</v>
+      </c>
+      <c r="C7" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="H1">
+      <c r="B8" t="n">
+        <v>94</v>
+      </c>
+      <c r="C8" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="I1">
+      <c r="B9" t="n">
+        <v>90</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="J1">
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>18</v>
-      </c>
-      <c r="I2">
-        <v>19</v>
-      </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>26</v>
-      </c>
-      <c r="G3">
-        <v>27</v>
-      </c>
-      <c r="H3">
-        <v>28</v>
-      </c>
-      <c r="I3">
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>32</v>
-      </c>
-      <c r="C4">
-        <v>33</v>
-      </c>
-      <c r="D4">
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>44</v>
+      </c>
+      <c r="C11" t="n">
         <v>34</v>
       </c>
-      <c r="E4">
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <v>36</v>
-      </c>
-      <c r="G4">
-        <v>37</v>
-      </c>
-      <c r="H4">
-        <v>38</v>
-      </c>
-      <c r="I4">
-        <v>39</v>
-      </c>
-      <c r="J4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>42</v>
-      </c>
-      <c r="C5">
-        <v>43</v>
-      </c>
-      <c r="D5">
-        <v>44</v>
-      </c>
-      <c r="E5">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>46</v>
-      </c>
-      <c r="G5">
-        <v>47</v>
-      </c>
-      <c r="H5">
-        <v>48</v>
-      </c>
-      <c r="I5">
-        <v>49</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>51</v>
-      </c>
-      <c r="B6">
-        <v>52</v>
-      </c>
-      <c r="C6">
-        <v>53</v>
-      </c>
-      <c r="D6">
-        <v>54</v>
-      </c>
-      <c r="E6">
-        <v>55</v>
-      </c>
-      <c r="F6">
-        <v>56</v>
-      </c>
-      <c r="G6">
-        <v>57</v>
-      </c>
-      <c r="H6">
-        <v>58</v>
-      </c>
-      <c r="I6">
-        <v>59</v>
-      </c>
-      <c r="J6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>61</v>
-      </c>
-      <c r="B7">
-        <v>62</v>
-      </c>
-      <c r="C7">
-        <v>63</v>
-      </c>
-      <c r="D7">
-        <v>64</v>
-      </c>
-      <c r="E7">
-        <v>65</v>
-      </c>
-      <c r="F7">
-        <v>66</v>
-      </c>
-      <c r="G7">
-        <v>67</v>
-      </c>
-      <c r="H7">
-        <v>68</v>
-      </c>
-      <c r="I7">
-        <v>69</v>
-      </c>
-      <c r="J7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>71</v>
-      </c>
-      <c r="B8">
-        <v>72</v>
-      </c>
-      <c r="C8">
-        <v>73</v>
-      </c>
-      <c r="D8">
-        <v>74</v>
-      </c>
-      <c r="E8">
-        <v>75</v>
-      </c>
-      <c r="F8">
-        <v>76</v>
-      </c>
-      <c r="G8">
-        <v>77</v>
-      </c>
-      <c r="H8">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>81</v>
-      </c>
-      <c r="B9">
-        <v>82</v>
-      </c>
-      <c r="C9">
-        <v>83</v>
-      </c>
-      <c r="D9">
-        <v>84</v>
-      </c>
-      <c r="E9">
-        <v>85</v>
-      </c>
-      <c r="F9">
-        <v>86</v>
-      </c>
-      <c r="G9">
-        <v>87</v>
-      </c>
-      <c r="H9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>91</v>
-      </c>
-      <c r="B10">
-        <v>92</v>
-      </c>
-      <c r="C10">
-        <v>93</v>
-      </c>
-      <c r="D10">
-        <v>94</v>
-      </c>
-      <c r="E10">
-        <v>95</v>
-      </c>
-      <c r="F10">
-        <v>96</v>
-      </c>
-      <c r="G10">
-        <v>97</v>
-      </c>
-      <c r="H10">
-        <v>98</v>
-      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,44 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <strike val="1"/>
+      <color rgb="00cc33ff"/>
+    </font>
+    <font>
+      <color rgb="000000ff"/>
+      <sz val="20"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000ff00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0022ff22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +70,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,145 +469,199 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="50" customHeight="1">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>번호</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>국어</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>컴퓨터</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>수학</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="C2" s="11" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>89</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>28</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>52</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>92</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <v>96</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>77</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>76</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>95</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>84</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>67</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>76</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="n">
         <v>86</v>
       </c>
-      <c r="C2" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>76</v>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>94</v>
-      </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>16</v>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>69</v>
-      </c>
-      <c r="C6" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="C9" s="12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="C7" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>94</v>
-      </c>
-      <c r="C8" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>90</v>
-      </c>
-      <c r="C9" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>44</v>
-      </c>
-      <c r="C11" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="B10" s="11" t="n">
+        <v>51</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12" t="n">
+        <v>93</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
